--- a/SuppTables/SuppTable3.xlsx
+++ b/SuppTables/SuppTable3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orsi\OneDriveELTE\OneDrive - elte.hu\ELTE\VEO\recombinant_detection\supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltehu-my.sharepoint.com/personal/orsolya_pipek_ttk_elte_hu/Documents/ELTE/VEO/recombinant_detection/supplementary/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C55906F-BFDE-4500-B1E9-598FCC2D7287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuppTable3" sheetId="1" r:id="rId1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -184,12 +185,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -406,7 +407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -416,32 +417,32 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -449,7 +450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -457,7 +458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -465,7 +466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -473,7 +474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -481,7 +482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -489,7 +490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -497,7 +498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -505,7 +506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -513,7 +514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -521,7 +522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -529,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -537,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -545,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -553,7 +554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -561,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -569,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -577,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -585,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -593,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -601,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -609,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -617,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>

--- a/SuppTables/SuppTable3.xlsx
+++ b/SuppTables/SuppTable3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltehu-my.sharepoint.com/personal/orsolya_pipek_ttk_elte_hu/Documents/ELTE/VEO/recombinant_detection/supplementary/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltehu-my.sharepoint.com/personal/orsolya_pipek_ttk_elte_hu/Documents/ELTE/VEO/recombinant_detection/githubdesktop_laptop/SARSCoV2-coinf/SuppTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C55906F-BFDE-4500-B1E9-598FCC2D7287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2C55906F-BFDE-4500-B1E9-598FCC2D7287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B9625BB-900D-40DD-94B6-AEA91D984FB6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Supplementary Table 3. </t>
+      <t xml:space="preserve">Supplementary Data 3. </t>
     </r>
     <r>
       <rPr>
@@ -180,18 +180,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,7 +414,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
